--- a/ModelingWorkbench_FeatureConfiguration.xlsx
+++ b/ModelingWorkbench_FeatureConfiguration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgiraudet\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Judith Michael\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B48201-B095-438A-AC43-2E8EC79EB295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3358ED40-FEE8-4E3E-9FED-070D3D5343D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9765" yWindow="1305" windowWidth="16845" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -313,11 +313,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -325,17 +325,17 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -345,7 +345,7 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -353,23 +353,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -378,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -386,6 +386,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -394,12 +396,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -415,6 +414,9 @@
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -429,10 +431,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83EE3E99-DC55-4AA5-9373-CE7CD4B397EB}" name="Tableau2" displayName="Tableau2" ref="A1:C73" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83EE3E99-DC55-4AA5-9373-CE7CD4B397EB}" name="Tableau2" displayName="Tableau2" ref="A1:C73" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:C73" xr:uid="{83EE3E99-DC55-4AA5-9373-CE7CD4B397EB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7079AA7E-1D06-47FE-BBEE-8677B9F81300}" name="Feature" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{7079AA7E-1D06-47FE-BBEE-8677B9F81300}" name="Feature" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{2525B41F-5756-4483-BC59-2CE0C7805AB6}" name="&lt;Language workbench name&gt;"/>
     <tableColumn id="3" xr3:uid="{2B497C5B-379C-4E34-A53A-0CC17C1E85C7}" name="Comments"/>
   </tableColumns>
@@ -705,20 +707,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="31.1796875" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" customWidth="1"/>
-    <col min="6" max="6" width="48.1796875" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="48.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -729,7 +731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -740,7 +742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -751,72 +753,72 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>78</v>
       </c>
@@ -826,10 +828,12 @@
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -839,48 +843,46 @@
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="E16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -891,7 +893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>57</v>
       </c>
@@ -902,28 +904,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -934,7 +936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,28 +947,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
@@ -977,49 +979,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -1030,56 +1032,56 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>61</v>
       </c>
@@ -1090,28 +1092,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
@@ -1122,21 +1124,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
@@ -1147,49 +1149,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>35</v>
       </c>
@@ -1200,28 +1202,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>36</v>
       </c>
@@ -1232,7 +1234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>37</v>
       </c>
@@ -1243,7 +1245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>38</v>
       </c>
@@ -1254,21 +1256,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>41</v>
       </c>
@@ -1279,28 +1281,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>44</v>
       </c>
@@ -1311,7 +1313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>45</v>
       </c>
@@ -1322,301 +1324,301 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
     </row>
   </sheetData>
